--- a/Test Data/HCM Employee Relations/HCM_Create a Pending Worker_0134.xlsx
+++ b/Test Data/HCM Employee Relations/HCM_Create a Pending Worker_0134.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OracleATS\OFT\Maaden\Test Data\HCM Employee Relations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F4A0E8-CFD9-430A-AC6D-D581555E799C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AB4586-FCCE-434D-9B0E-D765B028A789}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDE52EBF-C34A-44E8-A19F-627BCDE4ABAD}"/>
   </bookViews>
@@ -1017,13 +1017,13 @@
     <t>NoticePeriod</t>
   </si>
   <si>
-    <t>10340000000</t>
-  </si>
-  <si>
-    <t>Ravi</t>
-  </si>
-  <si>
-    <t>Sahoo</t>
+    <t>Somi</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>12351230000</t>
   </si>
 </sst>
 </file>
@@ -1441,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D142F1-4874-46D3-8D48-2B0434CD3DEA}">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1571,10 +1571,10 @@
         <v>12</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -1585,7 +1585,7 @@
         <v>19</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>19</v>
@@ -1636,9 +1636,73 @@
         <v>30</v>
       </c>
     </row>
+    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+    </row>
+    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AB2" r:id="rId1" xr:uid="{44F313E9-C3B9-41A6-89F9-76B42931F6E2}"/>
+    <hyperlink ref="AB2" r:id="rId1" xr:uid="{BB6B89DB-E0A9-4C48-A1AE-634D2B6F28CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
